--- a/biology/Biologie cellulaire et moléculaire/Syndrome_de_Kearns-Sayre/Syndrome_de_Kearns-Sayre.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Syndrome_de_Kearns-Sayre/Syndrome_de_Kearns-Sayre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Kearns-Sayre est une maladie neuromusculaire (myopathie, ophtalmoplégie), due à des délétions de l'ADN mitochondrial : de 1,3 à 8 kilobases (souvent 5 kb). Ce sont des délétions très souvent sporadiques, et donc hétéroplasmiques.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,9 +580,11 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La délétion la plus courante est de 4 977 paires de bases, bornées entre les gènes ND5 et ATP8[1],[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La délétion la plus courante est de 4 977 paires de bases, bornées entre les gènes ND5 et ATP8.
 Les symptômes apparaissent quand le pourcentage d'ADN mitochondrial anormal par cellule est grand (&gt; 60 %, cellules musculaires).
 </t>
         </is>
@@ -596,15 +614,14 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La maladie est principalement caractérisée par une ophtalmoplégie externe progressive[1] et une dégénéscence de la couche pigmentaire de la rétine, une anomalie de la conduction cardiaque et une ataxie[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie est principalement caractérisée par une ophtalmoplégie externe progressive et une dégénéscence de la couche pigmentaire de la rétine, une anomalie de la conduction cardiaque et une ataxie.
 À un moindre degré, on peut observer une démence, une surdité et un diabète.
 Le syndrome de Kearns-Sayre est associé au syndrome de Pearson. Si le syndrome de Pearson ne se développe pas, conduisant à la mort in utero, l'enfant sera atteint du syndrome de Kearns-Sayre.
-Signes fonctionnels
-Entraîne généralement des troubles oculaire et une myopathie.
-Examen clinique
-Examens complémentaires</t>
+</t>
         </is>
       </c>
     </row>
@@ -629,10 +646,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prise en charge</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Signes fonctionnels</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entraîne généralement des troubles oculaire et une myopathie.
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -655,10 +683,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Évolution et complications</t>
+          <t>Prise en charge</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -681,10 +711,40 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Évolution et complications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Kearns-Sayre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Kearns-Sayre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
